--- a/spliced/struggle/2023-04-06_17-41-21/data_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-41-21/data_selected.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.833344757556915</v>
+        <v>3.771172387259348</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.338198423385621</v>
+        <v>-7.547038768018995</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.509933024644852</v>
+        <v>-3.545775217669351</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07376197725534429</v>
+        <v>0.955545961856842</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.102472648024559</v>
+        <v>0.418595403432846</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0461203269660472</v>
+        <v>0.5012149214744568</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.108331612178258</v>
+        <v>2.675201347896034</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.027578847748893</v>
+        <v>-6.581202302660263</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.627250722476415</v>
+        <v>2.435893160956232</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1244637966156005</v>
+        <v>0.2005165219306945</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4952589869499206</v>
+        <v>3.583182811737061</v>
       </c>
       <c r="H3" t="n">
-        <v>0.25641068816185</v>
+        <v>0.4506658315658569</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.771172387259348</v>
+        <v>0.8038081441606844</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.547038768018995</v>
+        <v>-7.229396700859067</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.545775217669351</v>
+        <v>1.553160754697669</v>
       </c>
       <c r="F4" t="n">
-        <v>0.955545961856842</v>
+        <v>0.0250454749912023</v>
       </c>
       <c r="G4" t="n">
-        <v>0.418595403432846</v>
+        <v>1.217149019241333</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5012149214744568</v>
+        <v>0.2982549667358398</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.675201347896034</v>
+        <v>1.023633156503948</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.581202302660263</v>
+        <v>-4.972137170178557</v>
       </c>
       <c r="E5" t="n">
-        <v>2.435893160956232</v>
+        <v>-3.916851524795791</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2005165219306945</v>
+        <v>0.4430300295352936</v>
       </c>
       <c r="G5" t="n">
-        <v>3.583182811737061</v>
+        <v>1.049771904945374</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4506658315658569</v>
+        <v>-0.152105450630188</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8038081441606844</v>
+        <v>0.3411836709295031</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.229396700859067</v>
+        <v>-4.24002621429307</v>
       </c>
       <c r="E6" t="n">
-        <v>1.553160754697669</v>
+        <v>-5.904611808913096</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0250454749912023</v>
+        <v>-0.1605048477649688</v>
       </c>
       <c r="G6" t="n">
-        <v>1.217149019241333</v>
+        <v>0.6899722814559937</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2982549667358398</v>
+        <v>-0.2005165219306945</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.023633156503948</v>
+        <v>-0.6227953433990485</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.972137170178557</v>
+        <v>-4.929600954055787</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.916851524795791</v>
+        <v>-6.7005569934845</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4430300295352936</v>
+        <v>0.2364048510789871</v>
       </c>
       <c r="G7" t="n">
-        <v>1.049771904945374</v>
+        <v>-1.487151384353638</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.152105450630188</v>
+        <v>-0.1020144969224929</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3411836709295031</v>
+        <v>-0.2611346755709001</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.24002621429307</v>
+        <v>-5.176580480166844</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.904611808913096</v>
+        <v>-11.08990749291009</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1605048477649688</v>
+        <v>-1.693776607513428</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6899722814559937</v>
+        <v>-5.596747398376465</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.2005165219306945</v>
+        <v>1.112385630607605</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.6227953433990485</v>
+        <v>7.22266825607841</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.929600954055787</v>
+        <v>-7.398067985262175</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.7005569934845</v>
+        <v>-7.469464063644459</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2364048510789871</v>
+        <v>-1.431409955024719</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.487151384353638</v>
+        <v>-1.327410221099854</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1020144969224929</v>
+        <v>1.870163917541504</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.2611346755709001</v>
+        <v>17.43506016050075</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.176580480166844</v>
+        <v>-11.15922947440832</v>
       </c>
       <c r="E10" t="n">
-        <v>-11.08990749291009</v>
+        <v>8.020842296736639</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.693776607513428</v>
+        <v>0.08170322328805921</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.596747398376465</v>
+        <v>-2.866485118865967</v>
       </c>
       <c r="H10" t="n">
-        <v>1.112385630607605</v>
+        <v>0.2145664244890213</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.22266825607841</v>
+        <v>4.810774190085277</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.398067985262175</v>
+        <v>-6.605375971112934</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.469464063644459</v>
+        <v>0.3875993319920126</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.431409955024719</v>
+        <v>0.2112066596746444</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.327410221099854</v>
+        <v>-2.239890098571777</v>
       </c>
       <c r="H11" t="n">
-        <v>1.870163917541504</v>
+        <v>-0.6490443348884583</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17.43506016050075</v>
+        <v>3.291332300220217</v>
       </c>
       <c r="D12" t="n">
-        <v>-11.15922947440832</v>
+        <v>-5.354068347385952</v>
       </c>
       <c r="E12" t="n">
-        <v>8.020842296736639</v>
+        <v>1.089433806283133</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08170322328805921</v>
+        <v>-0.4173736870288849</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.866485118865967</v>
+        <v>-0.5337435007095337</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2145664244890213</v>
+        <v>-0.0603229440748691</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.810774190085277</v>
+        <v>3.138020081179482</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.605375971112934</v>
+        <v>-6.129925046648298</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3875993319920126</v>
+        <v>3.955937453678676</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2112066596746444</v>
+        <v>0.2202169150114059</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.239890098571777</v>
+        <v>1.032209515571594</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.6490443348884583</v>
+        <v>0.3608686327934265</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.291332300220217</v>
+        <v>3.258425533771516</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.354068347385952</v>
+        <v>-4.712551474571227</v>
       </c>
       <c r="E14" t="n">
-        <v>1.089433806283133</v>
+        <v>5.692880451679232</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4173736870288849</v>
+        <v>2.595261096954346</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.5337435007095337</v>
+        <v>7.212944030761719</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0603229440748691</v>
+        <v>-0.4940372705459595</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.138020081179482</v>
+        <v>-3.766383392470183</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.129925046648298</v>
+        <v>-8.431432792118596</v>
       </c>
       <c r="E15" t="n">
-        <v>3.955937453678676</v>
+        <v>7.765124661581846</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2202169150114059</v>
+        <v>0.2443460971117019</v>
       </c>
       <c r="G15" t="n">
-        <v>1.032209515571594</v>
+        <v>2.484389066696167</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3608686327934265</v>
+        <v>0.5590944290161133</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.258425533771516</v>
+        <v>1.177985225405012</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.712551474571227</v>
+        <v>-3.925881973334721</v>
       </c>
       <c r="E16" t="n">
-        <v>5.692880451679232</v>
+        <v>-4.60967251232692</v>
       </c>
       <c r="F16" t="n">
-        <v>2.595261096954346</v>
+        <v>0.3139847218990326</v>
       </c>
       <c r="G16" t="n">
-        <v>7.212944030761719</v>
+        <v>0.8843801617622375</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.4940372705459595</v>
+        <v>-0.1221730485558509</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-3.766383392470183</v>
+        <v>1.052592243467076</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.431432792118596</v>
+        <v>-3.166507703917357</v>
       </c>
       <c r="E17" t="n">
-        <v>7.765124661581846</v>
+        <v>-6.040607401302906</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2443460971117019</v>
+        <v>-1.060767531394958</v>
       </c>
       <c r="G17" t="n">
-        <v>2.484389066696167</v>
+        <v>1.06214189529419</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5590944290161133</v>
+        <v>0.0241291765123605</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.177985225405012</v>
+        <v>-1.074721106461116</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.925881973334721</v>
+        <v>-3.308761754206249</v>
       </c>
       <c r="E18" t="n">
-        <v>-4.60967251232692</v>
+        <v>-6.224646031856537</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3139847218990326</v>
+        <v>-0.1357648074626922</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8843801617622375</v>
+        <v>-0.5329799056053162</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1221730485558509</v>
+        <v>-0.2561052441596985</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.052592243467076</v>
+        <v>-1.158144678388323</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.166507703917357</v>
+        <v>-3.9557591165815</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.040607401302906</v>
+        <v>-8.491945947919575</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.060767531394958</v>
+        <v>-0.5283984541893005</v>
       </c>
       <c r="G19" t="n">
-        <v>1.06214189529419</v>
+        <v>-2.495231866836548</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0241291765123605</v>
+        <v>0.1453859210014343</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1.074721106461116</v>
+        <v>0.7903139420917948</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.308761754206249</v>
+        <v>-5.482765521321981</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.224646031856537</v>
+        <v>-6.279002168348867</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1357648074626922</v>
+        <v>-0.8752171993255615</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5329799056053162</v>
+        <v>-1.659415483474731</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.2561052441596985</v>
+        <v>-0.0487165041267871</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-1.158144678388323</v>
+        <v>4.010212659835815</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.9557591165815</v>
+        <v>-5.284669637680054</v>
       </c>
       <c r="E21" t="n">
-        <v>-8.491945947919575</v>
+        <v>-2.184034883975983</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5283984541893005</v>
+        <v>-0.0806342139840126</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.495231866836548</v>
+        <v>-0.5641340613365173</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1453859210014343</v>
+        <v>0.087353728711605</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/struggle/2023-04-06_17-41-21/data_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-41-21/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.771172387259348</v>
+        <v>2.846464770180838</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.547038768018995</v>
+        <v>-7.078682354518345</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.545775217669351</v>
+        <v>-3.06583663395473</v>
       </c>
       <c r="F2" t="n">
-        <v>0.955545961856842</v>
+        <v>-0.0001527163112768</v>
       </c>
       <c r="G2" t="n">
-        <v>0.418595403432846</v>
+        <v>-0.024892758578062</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5012149214744568</v>
+        <v>0.0048869219608604</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.675201347896034</v>
+        <v>2.835772105625697</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.581202302660263</v>
+        <v>-7.043793456895011</v>
       </c>
       <c r="E3" t="n">
-        <v>2.435893160956232</v>
+        <v>-2.961106973034996</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2005165219306945</v>
+        <v>-0.0087048299610614</v>
       </c>
       <c r="G3" t="n">
-        <v>3.583182811737061</v>
+        <v>-0.0183259565383195</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4506658315658569</v>
+        <v>0.0035124751739203</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8038081441606844</v>
+        <v>2.915691324642726</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.229396700859067</v>
+        <v>-7.111980744770594</v>
       </c>
       <c r="E4" t="n">
-        <v>1.553160754697669</v>
+        <v>-2.798882663249969</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0250454749912023</v>
+        <v>-0.0713185146450996</v>
       </c>
       <c r="G4" t="n">
-        <v>1.217149019241333</v>
+        <v>-0.1441642045974731</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2982549667358398</v>
+        <v>0.0519235469400882</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.023633156503948</v>
+        <v>3.055751519543784</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.972137170178557</v>
+        <v>-7.220968450818743</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.916851524795791</v>
+        <v>-2.894419597727912</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4430300295352936</v>
+        <v>-0.09269879758358</v>
       </c>
       <c r="G5" t="n">
-        <v>1.049771904945374</v>
+        <v>0.0145080499351024</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.152105450630188</v>
+        <v>-0.007177666760981</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3411836709295031</v>
+        <v>2.955562557492938</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.24002621429307</v>
+        <v>-7.134888444628034</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.904611808913096</v>
+        <v>-2.944399050303869</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1605048477649688</v>
+        <v>-0.090408056974411</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6899722814559937</v>
+        <v>-0.0394008085131645</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2005165219306945</v>
+        <v>-0.0087048299610614</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.6227953433990485</v>
+        <v>2.833344757556915</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.929600954055787</v>
+        <v>-7.338198423385621</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.7005569934845</v>
+        <v>-2.509933024644852</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2364048510789871</v>
+        <v>-0.07376197725534429</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.487151384353638</v>
+        <v>-0.102472648024559</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1020144969224929</v>
+        <v>0.0461203269660472</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.2611346755709001</v>
+        <v>3.108331612178258</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.176580480166844</v>
+        <v>-7.027578847748893</v>
       </c>
       <c r="E8" t="n">
-        <v>-11.08990749291009</v>
+        <v>-2.627250722476415</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.693776607513428</v>
+        <v>-0.1244637966156005</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.596747398376465</v>
+        <v>-0.4952589869499206</v>
       </c>
       <c r="H8" t="n">
-        <v>1.112385630607605</v>
+        <v>0.25641068816185</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.22266825607841</v>
+        <v>3.771172387259348</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.398067985262175</v>
+        <v>-7.547038768018995</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.469464063644459</v>
+        <v>-3.545775217669351</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.431409955024719</v>
+        <v>0.955545961856842</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.327410221099854</v>
+        <v>0.418595403432846</v>
       </c>
       <c r="H9" t="n">
-        <v>1.870163917541504</v>
+        <v>0.5012149214744568</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17.43506016050075</v>
+        <v>2.675201347896034</v>
       </c>
       <c r="D10" t="n">
-        <v>-11.15922947440832</v>
+        <v>-6.581202302660263</v>
       </c>
       <c r="E10" t="n">
-        <v>8.020842296736639</v>
+        <v>2.435893160956232</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08170322328805921</v>
+        <v>0.2005165219306945</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.866485118865967</v>
+        <v>3.583182811737061</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2145664244890213</v>
+        <v>0.4506658315658569</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.810774190085277</v>
+        <v>0.8038081441606844</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.605375971112934</v>
+        <v>-7.229396700859067</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3875993319920126</v>
+        <v>1.553160754697669</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2112066596746444</v>
+        <v>0.0250454749912023</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.239890098571777</v>
+        <v>1.217149019241333</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.6490443348884583</v>
+        <v>0.2982549667358398</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.291332300220217</v>
+        <v>1.023633156503948</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.354068347385952</v>
+        <v>-4.972137170178557</v>
       </c>
       <c r="E12" t="n">
-        <v>1.089433806283133</v>
+        <v>-3.916851524795791</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4173736870288849</v>
+        <v>0.4430300295352936</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.5337435007095337</v>
+        <v>1.049771904945374</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0603229440748691</v>
+        <v>-0.152105450630188</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.138020081179482</v>
+        <v>0.3411836709295031</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.129925046648298</v>
+        <v>-4.24002621429307</v>
       </c>
       <c r="E13" t="n">
-        <v>3.955937453678676</v>
+        <v>-5.904611808913096</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2202169150114059</v>
+        <v>-0.1605048477649688</v>
       </c>
       <c r="G13" t="n">
-        <v>1.032209515571594</v>
+        <v>0.6899722814559937</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3608686327934265</v>
+        <v>-0.2005165219306945</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.258425533771516</v>
+        <v>-0.6227953433990485</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.712551474571227</v>
+        <v>-4.929600954055787</v>
       </c>
       <c r="E14" t="n">
-        <v>5.692880451679232</v>
+        <v>-6.7005569934845</v>
       </c>
       <c r="F14" t="n">
-        <v>2.595261096954346</v>
+        <v>0.2364048510789871</v>
       </c>
       <c r="G14" t="n">
-        <v>7.212944030761719</v>
+        <v>-1.487151384353638</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.4940372705459595</v>
+        <v>-0.1020144969224929</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-3.766383392470183</v>
+        <v>-0.2611346755709001</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.431432792118596</v>
+        <v>-5.176580480166844</v>
       </c>
       <c r="E15" t="n">
-        <v>7.765124661581846</v>
+        <v>-11.08990749291009</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2443460971117019</v>
+        <v>-1.693776607513428</v>
       </c>
       <c r="G15" t="n">
-        <v>2.484389066696167</v>
+        <v>-5.596747398376465</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5590944290161133</v>
+        <v>1.112385630607605</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.177985225405012</v>
+        <v>7.22266825607841</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.925881973334721</v>
+        <v>-7.398067985262175</v>
       </c>
       <c r="E16" t="n">
-        <v>-4.60967251232692</v>
+        <v>-7.469464063644459</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3139847218990326</v>
+        <v>-1.431409955024719</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8843801617622375</v>
+        <v>-1.327410221099854</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1221730485558509</v>
+        <v>1.870163917541504</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.052592243467076</v>
+        <v>17.43506016050075</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.166507703917357</v>
+        <v>-11.15922947440832</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.040607401302906</v>
+        <v>8.020842296736639</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.060767531394958</v>
+        <v>0.08170322328805921</v>
       </c>
       <c r="G17" t="n">
-        <v>1.06214189529419</v>
+        <v>-2.866485118865967</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0241291765123605</v>
+        <v>0.2145664244890213</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.074721106461116</v>
+        <v>4.810774190085277</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.308761754206249</v>
+        <v>-6.605375971112934</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.224646031856537</v>
+        <v>0.3875993319920126</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1357648074626922</v>
+        <v>0.2112066596746444</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.5329799056053162</v>
+        <v>-2.239890098571777</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.2561052441596985</v>
+        <v>-0.6490443348884583</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.158144678388323</v>
+        <v>3.291332300220217</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.9557591165815</v>
+        <v>-5.354068347385952</v>
       </c>
       <c r="E19" t="n">
-        <v>-8.491945947919575</v>
+        <v>1.089433806283133</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5283984541893005</v>
+        <v>-0.4173736870288849</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.495231866836548</v>
+        <v>-0.5337435007095337</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1453859210014343</v>
+        <v>-0.0603229440748691</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.7903139420917948</v>
+        <v>3.138020081179482</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.482765521321981</v>
+        <v>-6.129925046648298</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.279002168348867</v>
+        <v>3.955937453678676</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8752171993255615</v>
+        <v>0.2202169150114059</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.659415483474731</v>
+        <v>1.032209515571594</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0487165041267871</v>
+        <v>0.3608686327934265</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>3.258425533771516</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-4.712551474571227</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.692880451679232</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.595261096954346</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7.212944030761719</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.4940372705459595</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-3.766383392470183</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-8.431432792118596</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.765124661581846</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2443460971117019</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.484389066696167</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5590944290161133</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.177985225405012</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-3.925881973334721</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-4.60967251232692</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3139847218990326</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8843801617622375</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.1221730485558509</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.052592243467076</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-3.166507703917357</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-6.040607401302906</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-1.060767531394958</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.06214189529419</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0241291765123605</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.074721106461116</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-3.308761754206249</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-6.224646031856537</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.1357648074626922</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.5329799056053162</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.2561052441596985</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.158144678388323</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-3.9557591165815</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-8.491945947919575</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.5283984541893005</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-2.495231866836548</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1453859210014343</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7903139420917948</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-5.482765521321981</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-6.279002168348867</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.8752171993255615</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1.659415483474731</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.0487165041267871</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>4.010212659835815</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D28" t="n">
         <v>-5.284669637680054</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E28" t="n">
         <v>-2.184034883975983</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F28" t="n">
         <v>-0.0806342139840126</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G28" t="n">
         <v>-0.5641340613365173</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H28" t="n">
         <v>0.087353728711605</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2.293728096144541</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-7.460245260170529</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.3245020040443973</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.1470658034086227</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.0910189226269722</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.2229658216238021</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.675990547452653</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-6.526311159133912</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.6771522419793252</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.4641048610210418</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.3608686327934265</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.3602577745914459</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3.116939672401965</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-5.273013770580299</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-3.711685695818474</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2412917762994766</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2144137024879455</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.0186313893646001</v>
       </c>
     </row>
   </sheetData>
